--- a/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,16</t>
+          <t>-4,07; 1,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 156,39</t>
+          <t>-77,0; 108,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,88</t>
+          <t>-2,45; 2,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,16</t>
+          <t>-2,16; 0,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,74</t>
+          <t>-0,43; 1,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,72; 108,61</t>
+          <t>-58,02; 100,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,17; 1018,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,49</t>
+          <t>1,16; 5,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,0</t>
+          <t>-1,42; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,61</t>
+          <t>-4,84; -0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,3</t>
+          <t>-2,65; 1,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,71</t>
+          <t>-0,25; 3,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -1,34</t>
+          <t>-100,0; 0,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 55,03</t>
+          <t>-55,77; 52,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 968,39</t>
+          <t>-32,21; 1065,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,17; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,42</t>
+          <t>-1,44; 1,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,55</t>
+          <t>-1,83; 2,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,04</t>
+          <t>-0,81; 3,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,63; 554,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,27</t>
+          <t>-1,43; 2,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,96</t>
+          <t>-0,31; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,63</t>
+          <t>-1,83; 0,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 140,47</t>
+          <t>-42,5; 163,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 460,2</t>
+          <t>-35,56; 486,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-92,13; 180,36</t>
+          <t>-91,58; 152,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,33</t>
+          <t>-0,72; 2,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,26</t>
+          <t>-0,14; 1,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,16</t>
+          <t>-0,4; 1,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 225,08</t>
+          <t>-33,95; 251,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,33; 672,23</t>
+          <t>-69,97; 869,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,63</t>
+          <t>-0,66; 0,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,92</t>
+          <t>-0,25; 0,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,71</t>
+          <t>-0,33; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 46,72</t>
+          <t>-33,9; 46,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 92,77</t>
+          <t>-17,43; 85,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 98,36</t>
+          <t>-29,15; 104,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,63</t>
+          <t>-4,06; 1,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 108,46</t>
+          <t>-77,91; 112,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,08</t>
+          <t>-2,31; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,03</t>
+          <t>-2,14; 0,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,69</t>
+          <t>-0,46; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,41</t>
+          <t>-2,33; 3,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 100,65</t>
+          <t>-58,01; 111,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 242,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 1018,46</t>
+          <t>-69,6; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 139,76</t>
+          <t>-40,53; 123,65</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,37</t>
+          <t>1,16; 5,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,0</t>
+          <t>-1,65; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,7</t>
+          <t>0,04; 1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -0,56</t>
+          <t>-4,87; -0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,32</t>
+          <t>-2,99; 1,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,65</t>
+          <t>-0,11; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; -0,03</t>
+          <t>-2,57; 0,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,48</t>
+          <t>-100,0; -3,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 52,2</t>
+          <t>-58,45; 43,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 1065,45</t>
+          <t>-30,83; 1014,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 78,49</t>
+          <t>-100,0; 113,07</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,0</t>
+          <t>-1,85; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,38</t>
+          <t>-1,55; 1,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,67</t>
+          <t>-1,85; 2,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,05</t>
+          <t>-0,77; 3,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,87</t>
+          <t>-2,2; 2,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,63; 554,0</t>
+          <t>-84,67; 790,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 265,46</t>
+          <t>-64,37; 255,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,35</t>
+          <t>-1,64; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,09</t>
+          <t>-0,46; 1,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,66</t>
+          <t>-1,77; 0,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,06</t>
+          <t>-2,78; 1,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 163,98</t>
+          <t>-49,93; 155,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 486,65</t>
+          <t>-44,89; 462,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-91,58; 152,47</t>
+          <t>-87,66; 148,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-71,85; 84,28</t>
+          <t>-74,18; 90,55</t>
         </is>
       </c>
     </row>
@@ -1368,27 +1368,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,39</t>
+          <t>-0,77; 2,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,37</t>
+          <t>-0,14; 1,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,09</t>
+          <t>-0,47; 1,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,18; -0,03</t>
+          <t>-2,15; -0,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 251,44</t>
+          <t>-29,83; 218,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 869,03</t>
+          <t>-69,5; 791,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 25,06</t>
+          <t>-91,9; 35,82</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,62</t>
+          <t>-0,63; 0,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,9</t>
+          <t>-0,25; 0,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,69</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,34</t>
+          <t>-0,89; 0,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 46,22</t>
+          <t>-31,66; 48,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 85,97</t>
+          <t>-15,74; 84,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 104,17</t>
+          <t>-26,14; 101,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 24,57</t>
+          <t>-42,69; 31,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,27 +673,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-4,36; 0,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 1,8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 1,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 76,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,28</t>
+          <t>-2,39; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 123,65</t>
+          <t>-41,1; 129,55</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,63</t>
+          <t>0,05; 1,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-71,77%</t>
+          <t>-76,77%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,07</t>
+          <t>-3,04; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,08</t>
+          <t>-2,81; -0,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 43,73</t>
+          <t>-53,42; 115,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 113,07</t>
+          <t>-100,0; 75,09</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,76</t>
+          <t>-2,32; 2,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 255,59</t>
+          <t>-66,14; 256,87</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-32,85%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,14</t>
+          <t>-3,17; 0,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 90,55</t>
+          <t>-81,14; 69,24</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>-56,07%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; -0,03</t>
+          <t>-1,69; 0,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-91,9; 35,82</t>
+          <t>-90,73; 89,54</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-11,78%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,45</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 31,2</t>
+          <t>-42,83; 40,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 0,83</t>
+          <t>-4,26; 1,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,8</t>
+          <t>-3,88; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 76,14</t>
+          <t>-93,5; 110,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 112,32</t>
+          <t>-76,54; 137,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,94</t>
+          <t>-2,29; 2,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,03</t>
+          <t>-2,15; 0,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,85</t>
+          <t>-0,51; 1,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,37</t>
+          <t>-2,33; 3,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 111,63</t>
+          <t>-56,44; 98,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 242,81</t>
+          <t>-100,0; 150,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,6; —</t>
+          <t>-72,23; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 129,55</t>
+          <t>-40,01; 125,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,5</t>
+          <t>1,16; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,0</t>
+          <t>-1,38; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,7</t>
+          <t>0,09; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -0,56</t>
+          <t>-5,09; -0,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,92</t>
+          <t>-3,38; 2,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,71</t>
+          <t>-0,16; 3,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,03</t>
+          <t>-2,68; -0,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,56</t>
+          <t>-100,0; -13,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 115,46</t>
+          <t>-54,17; 119,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 1014,41</t>
+          <t>-30,18; 1156,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,09</t>
+          <t>-100,0; 42,42</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,0</t>
+          <t>-2,14; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,12</t>
+          <t>-1,53; 1,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,77</t>
+          <t>-1,88; 2,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,26</t>
+          <t>-0,57; 3,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,67</t>
+          <t>-1,94; 2,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 790,3</t>
+          <t>-100,0; 600,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 256,87</t>
+          <t>-60,68; 257,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,37</t>
+          <t>-1,46; 2,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,89</t>
+          <t>-0,49; 1,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,55</t>
+          <t>-1,88; 0,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,87</t>
+          <t>-3,02; 0,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 155,35</t>
+          <t>-46,85; 164,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 462,86</t>
+          <t>-41,72; 502,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-87,66; 148,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-81,14; 69,24</t>
+          <t>-78,17; 75,74</t>
         </is>
       </c>
     </row>
@@ -1368,27 +1368,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,23</t>
+          <t>-0,71; 2,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,36</t>
+          <t>-0,17; 1,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,12</t>
+          <t>-0,43; 1,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,4</t>
+          <t>-1,66; 0,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 218,11</t>
+          <t>-35,59; 191,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 791,35</t>
+          <t>-66,74; 655,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,73; 89,54</t>
+          <t>-92,73; 95,39</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,65</t>
+          <t>-0,71; 0,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,88</t>
+          <t>-0,26; 0,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,69</t>
+          <t>-0,27; 0,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,49</t>
+          <t>-0,87; 0,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 48,2</t>
+          <t>-35,19; 44,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 84,9</t>
+          <t>-16,58; 86,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 101,48</t>
+          <t>-25,51; 100,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 40,96</t>
+          <t>-41,93; 37,47</t>
         </is>
       </c>
     </row>
